--- a/amir.xlsx
+++ b/amir.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>STM32F103 Development Board ARM Cortex M3</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Leds Different Colors</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,6 +607,12 @@
       <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>120</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -612,6 +621,12 @@
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -620,6 +635,12 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -628,6 +649,9 @@
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -636,6 +660,9 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -644,6 +671,9 @@
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -652,6 +682,9 @@
       <c r="B8">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -660,6 +693,9 @@
       <c r="B9">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -700,6 +736,9 @@
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1307,7 +1346,7 @@
       </c>
       <c r="D60">
         <f>SUM(D2:D59)</f>
-        <v>3382.5</v>
+        <v>3602.5</v>
       </c>
     </row>
   </sheetData>
